--- a/biology/Médecine/Trémomètre/Trémomètre.xlsx
+++ b/biology/Médecine/Trémomètre/Trémomètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A9mom%C3%A8tre</t>
+          <t>Trémomètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un trémomètre / trémographe ou ataxiamètre / ataxiagraphe est un dispositif permettant de tester la capacité d'un individu à maintenir immobile une partie de son corps ou à la mouvoir en maîtrisant son geste, et qui pour cela mesure les caractéristiques des tremblements involontaires qu'il présente en tentant de le faire (fréquence, amplitude).
 Ils sont par exemple utilisés pour mesurer les conséquences d'un effort physique, mais aussi dans les détecteurs de mensonge, ou encore pour apprécier un état d'ivresse.
